--- a/results/FrequencyTables/25808449_T5.xlsx
+++ b/results/FrequencyTables/25808449_T5.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.0025387765691307</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.996960880603376</v>
       </c>
       <c r="D2">
-        <v>0.0102040816326531</v>
+        <v>0.00657858162074014</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>7.41248633322832e-05</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.000611530122491337</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000259437021662991</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.000166780942497637</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00159368456164409</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00203843374163779</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00124159146081574</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.997479754646702</v>
       </c>
       <c r="M2">
-        <v>0.969387755102041</v>
+        <v>0.94423957155829</v>
       </c>
       <c r="N2">
-        <v>0.0306122448979592</v>
+        <v>0.0273891370012787</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.85312158330708e-05</v>
       </c>
       <c r="P2">
-        <v>0.0204081632653061</v>
+        <v>0.0119896966439968</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0.997461223430869</v>
       </c>
       <c r="S2">
-        <v>0.969387755102041</v>
+        <v>0.940051516780016</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>3.70624316661416e-05</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.85312158330708e-05</v>
       </c>
       <c r="V2">
-        <v>0.959183673469388</v>
+        <v>0.978133165316976</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.00281674480662676</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00333561884995275</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.000111187294998425</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000574467690825195</v>
       </c>
       <c r="D3">
-        <v>0.826530612244898</v>
+        <v>0.892926634916517</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00092656079165354</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000407686748327558</v>
       </c>
       <c r="G3">
-        <v>0.948979591836735</v>
+        <v>0.883623964568315</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00187165279914015</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00148249726664566</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000352093100828345</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00137130997164724</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.41248633322832e-05</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.55936474992124e-05</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00046328039582677</v>
       </c>
       <c r="P3">
-        <v>0.0102040816326531</v>
+        <v>0.0657116913440691</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0.999796156625836</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.000592998906658266</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5.55936474992124e-05</v>
       </c>
       <c r="T3">
-        <v>0.0204081632653061</v>
+        <v>0.0417322980560755</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>9.2656079165354e-05</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>5.55936474992124e-05</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>3.70624316661416e-05</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.996942349387543</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00100068565498582</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00135277875581417</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.000166780942497637</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>7.41248633322832e-05</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000129718510831496</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.000611530122491337</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.995737820358394</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.99179067138595</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.99673850601338</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000630061338324407</v>
       </c>
       <c r="M4">
-        <v>0.0204081632653061</v>
+        <v>0.0474955061801605</v>
       </c>
       <c r="N4">
-        <v>0.969387755102041</v>
+        <v>0.966532624205474</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>7.41248633322832e-05</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.0255360154179716</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000518874043325983</v>
       </c>
       <c r="S4">
-        <v>0.0306122448979592</v>
+        <v>0.0525174656709227</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3.70624316661416e-05</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1.85312158330708e-05</v>
       </c>
       <c r="V4">
-        <v>0.0408163265306122</v>
+        <v>0.0186609343439023</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.997072067898375</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.996479068991717</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1.85312158330708e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00137130997164724</v>
       </c>
       <c r="D5">
-        <v>0.142857142857143</v>
+        <v>0.0845764690621352</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.998721346107518</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.99879547097085</v>
       </c>
       <c r="G5">
-        <v>0.0510204081632653</v>
+        <v>0.100921001426904</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0.997220317625039</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000833904712488186</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00479958490076534</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00189018401497322</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.000407686748327558</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.55936474992124e-05</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>9.2656079165354e-05</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.999407001093342</v>
       </c>
       <c r="P5">
-        <v>0.969387755102041</v>
+        <v>0.882122936085837</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>9.2656079165354e-05</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00135277875581417</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3.70624316661416e-05</v>
       </c>
       <c r="T5">
-        <v>0.979591836734694</v>
+        <v>0.953190148805663</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0.999796156625836</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>9.2656079165354e-05</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.85312158330708e-05</v>
       </c>
     </row>
   </sheetData>
